--- a/Approximationen/Kessel Kosten.xlsx
+++ b/Approximationen/Kessel Kosten.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E7848E11-637A-4160-9D2E-A921C0E9C54F}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{20FD1FBC-0DE3-4DBC-8350-383D191F1DAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>kW</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>Investitionskostenfunktionen TGA</t>
+  </si>
+  <si>
+    <t>Hauskessel (bis 500 kW)</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1196,474 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Daten!$A$4:$A$10,Daten!$I$4:$I$6,Daten!$A$15:$A$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Daten!$C$4:$C$10,Daten!$J$4:$J$6,Daten!$B$15:$B$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>14.074079506085383</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>22.494150942233574</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>28.634029465294255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.730470011121776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.906220037042921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.932679588678656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.333322169614885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.320371897662696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBEF-48CB-8434-95B83E97026D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067659888"/>
+        <c:axId val="1217842128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067659888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217842128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217842128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067659888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1748,11 +2219,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76552301-D303-4B6A-96EB-9868FE87B1FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1764,7 +2751,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6000750"/>
+    <xdr:ext cx="9305925" cy="6010275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -1790,6 +2777,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597145</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304068</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96715</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABC6A9D-460E-4530-8568-3967CE901969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2058,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,6 +3278,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2298,5 +3329,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Approximationen/Kessel Kosten.xlsx
+++ b/Approximationen/Kessel Kosten.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="154" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{20FD1FBC-0DE3-4DBC-8350-383D191F1DAB}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A918C6E6-C9B1-4639-8F00-5BE201123BB8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -1282,6 +1282,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3087,7 +3088,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Approximationen/Kessel Kosten.xlsx
+++ b/Approximationen/Kessel Kosten.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A918C6E6-C9B1-4639-8F00-5BE201123BB8}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5B5EDB87-4851-46C3-A163-C54D3434C603}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,7 +398,37 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2740,7 +2770,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76552301-D303-4B6A-96EB-9868FE87B1FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2752,7 +2782,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6010275"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3087,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>

--- a/Approximationen/Kessel Kosten.xlsx
+++ b/Approximationen/Kessel Kosten.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="156" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5B5EDB87-4851-46C3-A163-C54D3434C603}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{54F838FF-049D-44E9-A45E-63EDD4D85452}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{58B4380B-6601-445E-8F9C-023395017554}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +138,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -284,7 +284,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -387,7 +387,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -398,37 +398,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -569,7 +539,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -665,7 +635,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -865,7 +835,7 @@
         <c:axId val="2058144560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3000"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -904,7 +874,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -914,7 +884,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -937,7 +907,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -952,11 +922,11 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -969,7 +939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -984,6 +954,7 @@
         <c:crossAx val="1962439152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
@@ -992,6 +963,7 @@
         <c:axId val="1962439152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1030,7 +1002,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1040,7 +1012,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1063,7 +1035,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1078,11 +1050,11 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1095,7 +1067,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1114,7 +1086,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1156,10 +1128,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14916238834469114"/>
-          <c:y val="8.8372830479737222E-2"/>
+          <c:x val="0.12730793574653967"/>
+          <c:y val="7.5689942056335169E-2"/>
           <c:w val="0.2072991972630778"/>
-          <c:h val="0.24213128033909409"/>
+          <c:h val="0.19774097435835128"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1179,7 +1151,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2770,10 +2742,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76552301-D303-4B6A-96EB-9868FE87B1FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -2782,7 +2754,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6013174"/>
+    <xdr:ext cx="9305925" cy="6010275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
